--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -10,12 +10,12 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="301">
   <si>
     <t>isotermos para furgonetas</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>0.51</t>
-  </si>
-  <si>
-    <t>furgonetas camper segunda mano</t>
   </si>
   <si>
     <t>furgoneta frigorífica</t>
@@ -976,8 +973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F90" totalsRowShown="0">
-  <autoFilter ref="A1:F90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F89" totalsRowShown="0">
+  <autoFilter ref="A1:F89"/>
   <sortState ref="A2:BG94">
     <sortCondition descending="1" ref="B1:B94"/>
   </sortState>
@@ -1351,15 +1348,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
@@ -1490,7 +1488,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7">
         <v>4547</v>
@@ -1499,7 +1497,7 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7">
         <v>93</v>
@@ -1530,7 +1528,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9">
         <v>3600</v>
@@ -1547,132 +1545,132 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="B10">
-        <v>3559</v>
+        <v>2925</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="B11">
-        <v>2925</v>
+        <v>2900</v>
       </c>
       <c r="C11" t="s">
         <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="E11">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B12">
-        <v>2900</v>
+        <v>2336</v>
       </c>
       <c r="C12" t="s">
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E12">
-        <v>86</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="B13">
-        <v>2336</v>
+        <v>2112</v>
       </c>
       <c r="C13" t="s">
         <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="E13">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>2112</v>
+        <v>1642</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B15">
-        <v>1642</v>
+        <v>1347</v>
       </c>
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E15">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="B16">
-        <v>1347</v>
+        <v>1300</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E16">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B17">
         <v>1300</v>
@@ -1681,72 +1679,72 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="E17">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="B18">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F18">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B19">
-        <v>1286</v>
+        <v>1029</v>
       </c>
       <c r="C19" t="s">
         <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E19">
-        <v>77</v>
-      </c>
-      <c r="F19">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B20">
-        <v>1029</v>
+        <v>880</v>
       </c>
       <c r="C20" t="s">
         <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B21">
         <v>880</v>
@@ -1755,120 +1753,120 @@
         <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E21">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="B22">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="C22" t="s">
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="B23">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C23" t="s">
         <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="B24">
-        <v>842</v>
+        <v>814</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B25">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E25">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B26">
-        <v>774</v>
+        <v>721</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="E26">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B27">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E27">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B28">
         <v>720</v>
@@ -1877,72 +1875,72 @@
         <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="E28">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B29">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C29" t="s">
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="E29">
-        <v>80</v>
-      </c>
-      <c r="F29">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="B30">
-        <v>709</v>
+        <v>593</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="B31">
-        <v>593</v>
+        <v>480</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="E31">
-        <v>80</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B32">
         <v>480</v>
@@ -1951,66 +1949,69 @@
         <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="E32">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="B33">
-        <v>480</v>
+        <v>393</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E33">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B34">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="E34">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="B35">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="E35">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="F35">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="B36">
         <v>388</v>
@@ -2019,89 +2020,86 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E36">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F36">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B37">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="C37" t="s">
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>85</v>
-      </c>
-      <c r="F37">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B38">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E38">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="B39">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="E39">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="B40">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="E40">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B41">
         <v>210</v>
@@ -2110,32 +2108,32 @@
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="E41">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="B42">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C42" t="s">
         <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="E42">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="B43">
         <v>209</v>
@@ -2144,49 +2142,49 @@
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="E43">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B44">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="E44">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B45">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="E45">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B46">
         <v>140</v>
@@ -2195,15 +2193,15 @@
         <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E46">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B47">
         <v>140</v>
@@ -2212,15 +2210,15 @@
         <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="E47">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B48">
         <v>140</v>
@@ -2229,83 +2227,83 @@
         <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E48">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="B49">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="E49">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="B50">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="B51">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="E51">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B52">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
         <v>87</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="B53">
         <v>111</v>
@@ -2314,32 +2312,32 @@
         <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="B54">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E54">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="B55">
         <v>110</v>
@@ -2348,15 +2346,15 @@
         <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="E55">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="B56">
         <v>110</v>
@@ -2365,15 +2363,15 @@
         <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B57">
         <v>110</v>
@@ -2382,15 +2380,18 @@
         <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="F57">
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B58">
         <v>110</v>
@@ -2399,38 +2400,35 @@
         <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F58">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="B59">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="E59">
-        <v>69</v>
-      </c>
-      <c r="F59">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>90</v>
@@ -2439,15 +2437,15 @@
         <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="E60">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="B61">
         <v>90</v>
@@ -2456,15 +2454,15 @@
         <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="E61">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B62">
         <v>90</v>
@@ -2473,49 +2471,52 @@
         <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="E62">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="B63">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
         <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="B64">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
         <v>87</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E64">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="B65">
         <v>70</v>
@@ -2524,35 +2525,35 @@
         <v>87</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="E65">
-        <v>65</v>
-      </c>
-      <c r="F65">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="B66">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
         <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="E66">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="F66">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="B67">
         <v>50</v>
@@ -2561,18 +2562,15 @@
         <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E67">
-        <v>89</v>
-      </c>
-      <c r="F67">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="B68">
         <v>50</v>
@@ -2581,15 +2579,15 @@
         <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E68">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="B69">
         <v>50</v>
@@ -2598,15 +2596,15 @@
         <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="E69">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B70">
         <v>50</v>
@@ -2615,49 +2613,49 @@
         <v>87</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="E70">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="B71">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
         <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="E71">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="B72">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="E72">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B73">
         <v>40</v>
@@ -2666,15 +2664,15 @@
         <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E73">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>40</v>
@@ -2683,15 +2681,15 @@
         <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E74">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B75">
         <v>40</v>
@@ -2700,15 +2698,15 @@
         <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E75">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="B76">
         <v>40</v>
@@ -2717,103 +2715,103 @@
         <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="E76">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B77">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E77">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="B78">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
         <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="E78">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="B79">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E79">
-        <v>46</v>
+        <v>91</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B80">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="E80">
-        <v>91</v>
-      </c>
-      <c r="F80">
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B81">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E81">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B82">
         <v>20</v>
@@ -2822,15 +2820,15 @@
         <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E82">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="B83">
         <v>20</v>
@@ -2839,15 +2837,15 @@
         <v>87</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E83">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="B84">
         <v>20</v>
@@ -2856,49 +2854,49 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="E84">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E85">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B86">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E86">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -2907,48 +2905,31 @@
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="E87">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>214</v>
-      </c>
-      <c r="B88">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88">
-        <v>84</v>
+      <c r="F88">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s">
         <v>87</v>
       </c>
       <c r="F89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F90">
         <v>14</v>
       </c>
     </row>
@@ -2962,9 +2943,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BG88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3159,7 +3141,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B2">
         <v>210</v>
@@ -3335,7 +3317,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -3344,7 +3326,7 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>57</v>
@@ -3511,7 +3493,7 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4">
         <v>140</v>
@@ -3863,7 +3845,7 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B6">
         <v>110</v>
@@ -3872,7 +3854,7 @@
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>69</v>
@@ -4042,7 +4024,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -4051,7 +4033,7 @@
         <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -4218,7 +4200,7 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8">
         <v>70</v>
@@ -4394,7 +4376,7 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9">
         <v>50</v>
@@ -4749,7 +4731,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11">
         <v>50</v>
@@ -4925,7 +4907,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -4934,7 +4916,7 @@
         <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E12">
         <v>69</v>
@@ -5101,7 +5083,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -5110,7 +5092,7 @@
         <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13">
         <v>76</v>
@@ -5277,7 +5259,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -5286,7 +5268,7 @@
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E14">
         <v>73</v>
@@ -5981,7 +5963,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -6157,7 +6139,7 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -6685,7 +6667,7 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -6694,7 +6676,7 @@
         <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E22">
         <v>61</v>
@@ -7034,7 +7016,7 @@
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -7043,7 +7025,7 @@
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -7213,7 +7195,7 @@
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>87</v>
@@ -7383,7 +7365,7 @@
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
@@ -7550,7 +7532,7 @@
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
         <v>87</v>
@@ -7717,7 +7699,7 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" t="s">
         <v>87</v>
@@ -8051,7 +8033,7 @@
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>
@@ -8218,7 +8200,7 @@
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
         <v>87</v>
@@ -9053,7 +9035,7 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
@@ -9387,7 +9369,7 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
         <v>87</v>
@@ -9554,7 +9536,7 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
         <v>87</v>
@@ -9721,7 +9703,7 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" t="s">
         <v>87</v>
@@ -9888,7 +9870,7 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C41" t="s">
         <v>87</v>
@@ -10222,7 +10204,7 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
         <v>87</v>
@@ -10389,7 +10371,7 @@
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
@@ -10556,7 +10538,7 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
         <v>87</v>
@@ -10723,7 +10705,7 @@
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
         <v>87</v>
@@ -11391,7 +11373,7 @@
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -11558,7 +11540,7 @@
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
         <v>87</v>
@@ -11892,7 +11874,7 @@
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" t="s">
         <v>87</v>
@@ -12059,7 +12041,7 @@
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
@@ -12226,7 +12208,7 @@
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
         <v>87</v>
@@ -12393,7 +12375,7 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
         <v>87</v>
@@ -12560,7 +12542,7 @@
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
         <v>87</v>
@@ -12727,7 +12709,7 @@
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C58" t="s">
         <v>87</v>
@@ -12894,7 +12876,7 @@
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
         <v>87</v>
@@ -13061,7 +13043,7 @@
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
         <v>87</v>
@@ -13395,7 +13377,7 @@
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
         <v>87</v>
@@ -14230,7 +14212,7 @@
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s">
         <v>87</v>
@@ -14564,7 +14546,7 @@
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" t="s">
         <v>87</v>
@@ -14731,7 +14713,7 @@
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
@@ -15065,7 +15047,7 @@
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
@@ -15232,7 +15214,7 @@
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -15399,7 +15381,7 @@
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
@@ -15566,7 +15548,7 @@
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
         <v>87</v>
@@ -15733,7 +15715,7 @@
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C76" t="s">
         <v>87</v>
@@ -15900,7 +15882,7 @@
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C77" t="s">
         <v>87</v>
@@ -16234,7 +16216,7 @@
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C79" t="s">
         <v>87</v>
@@ -16401,7 +16383,7 @@
     </row>
     <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -16735,7 +16717,7 @@
     </row>
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
         <v>87</v>
@@ -16902,7 +16884,7 @@
     </row>
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C83" t="s">
         <v>87</v>
@@ -17069,7 +17051,7 @@
     </row>
     <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -17236,7 +17218,7 @@
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C85" t="s">
         <v>87</v>
@@ -17403,7 +17385,7 @@
     </row>
     <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
         <v>87</v>
@@ -17570,7 +17552,7 @@
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
         <v>87</v>
@@ -17737,7 +17719,7 @@
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C88" t="s">
         <v>87</v>
